--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-07-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4646" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4645" uniqueCount="761">
   <si>
     <t>Property</t>
   </si>
@@ -2686,9 +2686,7 @@
       <c r="A13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -917,7 +917,7 @@
 投与を受ける患者</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
@@ -1353,7 +1353,7 @@
   </si>
   <si>
     <t>Identification of the facility/location where the medication was shipped to, as part of the dispense event.
-調剤イベントの一環として、薬剤が出荷された行先先の施設/場所のLocarionリソースへの参照。</t>
+調剤イベントの一環として、薬剤が出荷された行先先の施設/場所のLocationリソースへの参照。</t>
   </si>
   <si>
     <t>.participation[typeCode=DST].role</t>
@@ -1541,7 +1541,7 @@
   </si>
   <si>
     <t>Free text dosage instructions can be used for cases where the instructions are too complex to code.  The content of this attribute does not include the name or description of the medication. When coded instructions are present, the free text instructions may still be present for display to humans taking or administering the medication. It is expected that the text instructions will always be populated.  If the dosage.timing attribute is also populated, then the dosage.text should reflect the same information as the timing.  Additional information about administration or preparation of the medication should be included as text.
-指示が複雑すぎてコーディングできない場合は、フリーテキストの投与指示を使用できる。この属性の内容には、薬の名前や説明は含まれない。コード化された指示が存在する場合、フリーテキストの指示は、薬を服用または投与している人間に表示するために存在している場合がある。テキストの指示は常に入力されることが期待される。 dose.timing属性も同時に入力されている場合、dudgement.textはタイミングと同じ情報を反映している必要があり、薬の投与または準備に関する追加情報をテキストとして含める必要がある。</t>
+指示が複雑すぎてコーディングできない場合は、フリーテキストの投与指示を使用できる。この属性の内容には、薬の名前や説明は含まれない。コード化された指示が存在する場合、フリーテキストの指示は、薬を服用または投与している人間に表示するために存在している場合がある。テキストの指示は常に入力されることが期待される。 dose.timing属性も同時に入力されている場合、dosage.textはタイミングと同じ情報を反映している必要があり、薬の投与または準備に関する追加情報をテキストとして含める必要がある。</t>
   </si>
   <si>
     <t>Dosage.text</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4645" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4645" uniqueCount="762">
   <si>
     <t>Property</t>
   </si>
@@ -513,7 +513,7 @@
     <t>MedicationDispense.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Procedure)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Procedure)
 </t>
   </si>
   <si>
@@ -936,7 +936,7 @@
     <t>MedicationDispense.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter|EpisodeOfCare)
 </t>
   </si>
   <si>
@@ -1040,7 +1040,7 @@
     <t>MedicationDispense.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|Device|RelatedPerson)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|Device|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1076,7 +1076,7 @@
     <t>MedicationDispense.authorizingPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequest)
 </t>
   </si>
   <si>
@@ -1349,6 +1349,10 @@
     <t>MedicationDispense.destination</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Location)
+</t>
+  </si>
+  <si>
     <t>Where the medication was sent　薬が送られた場所</t>
   </si>
   <si>
@@ -1368,7 +1372,7 @@
     <t>MedicationDispense.receiver</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner)
 </t>
   </si>
   <si>
@@ -2385,7 +2389,7 @@
     <t>MedicationDispense.substitution.responsibleParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole)
 </t>
   </si>
   <si>
@@ -9095,13 +9099,13 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>330</v>
+        <v>420</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>286</v>
@@ -9172,21 +9176,21 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9209,13 +9213,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>286</v>
@@ -9268,7 +9272,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -9286,13 +9290,13 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -9300,7 +9304,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9323,16 +9327,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9382,7 +9386,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9397,10 +9401,10 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -9409,12 +9413,12 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9437,16 +9441,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9496,7 +9500,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9514,7 +9518,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -9528,7 +9532,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9554,7 +9558,7 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>209</v>
@@ -9640,7 +9644,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9754,10 +9758,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -9779,13 +9783,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9868,10 +9872,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>77</v>
@@ -9893,13 +9897,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9982,10 +9986,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>77</v>
@@ -10007,13 +10011,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -10096,10 +10100,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>77</v>
@@ -10121,13 +10125,13 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -10210,7 +10214,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10326,7 +10330,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10349,17 +10353,17 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -10408,7 +10412,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10426,7 +10430,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -10435,12 +10439,12 @@
         <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10466,14 +10470,14 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -10522,7 +10526,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10540,7 +10544,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -10549,12 +10553,12 @@
         <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10580,16 +10584,16 @@
         <v>186</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -10617,10 +10621,10 @@
         <v>180</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -10638,7 +10642,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10656,7 +10660,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -10665,12 +10669,12 @@
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10696,10 +10700,10 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10750,7 +10754,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10768,7 +10772,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10777,12 +10781,12 @@
         <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10805,19 +10809,19 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10866,7 +10870,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10884,7 +10888,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10898,7 +10902,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -11010,7 +11014,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11124,7 +11128,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11240,7 +11244,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11266,14 +11270,14 @@
         <v>408</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -11322,7 +11326,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -11340,7 +11344,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -11354,7 +11358,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11377,17 +11381,17 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -11436,7 +11440,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11448,13 +11452,13 @@
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -11468,7 +11472,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11580,7 +11584,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11694,7 +11698,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11717,13 +11721,13 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11774,7 +11778,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11792,7 +11796,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11806,7 +11810,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11829,19 +11833,19 @@
         <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11890,7 +11894,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11908,7 +11912,7 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11922,7 +11926,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11945,13 +11949,13 @@
         <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -12002,7 +12006,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -12020,7 +12024,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -12034,7 +12038,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12060,16 +12064,16 @@
         <v>363</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
@@ -12118,7 +12122,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -12136,7 +12140,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -12150,7 +12154,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12176,16 +12180,16 @@
         <v>363</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -12234,7 +12238,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -12252,7 +12256,7 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -12266,7 +12270,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12292,10 +12296,10 @@
         <v>106</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12325,10 +12329,10 @@
         <v>169</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>77</v>
@@ -12346,7 +12350,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -12364,7 +12368,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -12378,7 +12382,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12401,13 +12405,13 @@
         <v>87</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12415,7 +12419,7 @@
         <v>77</v>
       </c>
       <c r="P85" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="Q85" t="s" s="2">
         <v>77</v>
@@ -12460,7 +12464,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12478,7 +12482,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -12492,7 +12496,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12515,13 +12519,13 @@
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12572,7 +12576,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12590,7 +12594,7 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -12604,7 +12608,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12630,10 +12634,10 @@
         <v>363</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12684,7 +12688,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12702,7 +12706,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -12716,7 +12720,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12742,10 +12746,10 @@
         <v>363</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12796,7 +12800,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12814,7 +12818,7 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12828,7 +12832,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12854,10 +12858,10 @@
         <v>106</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12887,10 +12891,10 @@
         <v>169</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
@@ -12908,7 +12912,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12926,7 +12930,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12940,7 +12944,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12966,13 +12970,13 @@
         <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -13002,7 +13006,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -13020,7 +13024,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -13052,7 +13056,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13075,16 +13079,16 @@
         <v>87</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -13134,7 +13138,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -13166,7 +13170,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13192,16 +13196,16 @@
         <v>106</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>77</v>
@@ -13229,10 +13233,10 @@
         <v>169</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>77</v>
@@ -13250,7 +13254,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -13268,7 +13272,7 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -13282,7 +13286,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13305,13 +13309,13 @@
         <v>87</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13362,7 +13366,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -13380,7 +13384,7 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -13394,7 +13398,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13420,13 +13424,13 @@
         <v>186</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13455,10 +13459,10 @@
         <v>110</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
@@ -13476,7 +13480,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13494,7 +13498,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -13508,7 +13512,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13620,7 +13624,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13734,7 +13738,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13760,13 +13764,13 @@
         <v>224</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>228</v>
@@ -13850,7 +13854,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13962,7 +13966,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14076,7 +14080,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14192,7 +14196,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14306,7 +14310,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14420,7 +14424,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14534,7 +14538,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14650,7 +14654,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14766,7 +14770,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14789,16 +14793,16 @@
         <v>87</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14827,10 +14831,10 @@
         <v>180</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>77</v>
@@ -14848,7 +14852,7 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
@@ -14866,7 +14870,7 @@
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>77</v>
@@ -14875,12 +14879,12 @@
         <v>77</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14906,16 +14910,16 @@
         <v>186</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>77</v>
@@ -14943,10 +14947,10 @@
         <v>180</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>77</v>
@@ -14964,7 +14968,7 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -14982,7 +14986,7 @@
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14991,12 +14995,12 @@
         <v>77</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15022,16 +15026,16 @@
         <v>186</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="M108" t="s" s="2">
         <v>346</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>77</v>
@@ -15059,10 +15063,10 @@
         <v>180</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>77</v>
@@ -15080,7 +15084,7 @@
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>78</v>
@@ -15098,7 +15102,7 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -15107,12 +15111,12 @@
         <v>77</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15138,16 +15142,16 @@
         <v>186</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>77</v>
@@ -15175,10 +15179,10 @@
         <v>180</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>77</v>
@@ -15196,7 +15200,7 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>78</v>
@@ -15214,7 +15218,7 @@
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -15223,12 +15227,12 @@
         <v>77</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15251,13 +15255,13 @@
         <v>87</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -15308,7 +15312,7 @@
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>78</v>
@@ -15335,12 +15339,12 @@
         <v>77</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15452,7 +15456,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15566,7 +15570,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15592,14 +15596,14 @@
         <v>186</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>77</v>
@@ -15627,10 +15631,10 @@
         <v>180</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>77</v>
@@ -15648,7 +15652,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>78</v>
@@ -15675,12 +15679,12 @@
         <v>77</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15703,19 +15707,19 @@
         <v>87</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>77</v>
@@ -15764,7 +15768,7 @@
         <v>77</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>78</v>
@@ -15782,7 +15786,7 @@
         <v>77</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>77</v>
@@ -15791,12 +15795,12 @@
         <v>77</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15819,19 +15823,19 @@
         <v>87</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>77</v>
@@ -15880,7 +15884,7 @@
         <v>77</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>78</v>
@@ -15898,7 +15902,7 @@
         <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
@@ -15907,12 +15911,12 @@
         <v>77</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15935,19 +15939,19 @@
         <v>87</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>77</v>
@@ -15996,7 +16000,7 @@
         <v>77</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>78</v>
@@ -16014,7 +16018,7 @@
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>77</v>
@@ -16023,12 +16027,12 @@
         <v>77</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16054,16 +16058,16 @@
         <v>353</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>77</v>
@@ -16112,7 +16116,7 @@
         <v>77</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>78</v>
@@ -16130,7 +16134,7 @@
         <v>77</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>77</v>
@@ -16144,7 +16148,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16170,14 +16174,14 @@
         <v>353</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>77</v>
@@ -16226,7 +16230,7 @@
         <v>77</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>78</v>
@@ -16244,7 +16248,7 @@
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>77</v>
@@ -16258,7 +16262,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16284,10 +16288,10 @@
         <v>304</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16338,7 +16342,7 @@
         <v>77</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>78</v>
@@ -16356,13 +16360,13 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>77</v>
@@ -16370,7 +16374,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16482,7 +16486,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16596,7 +16600,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16712,7 +16716,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16738,10 +16742,10 @@
         <v>264</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16792,7 +16796,7 @@
         <v>77</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>86</v>
@@ -16810,7 +16814,7 @@
         <v>77</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>77</v>
@@ -16824,7 +16828,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16850,13 +16854,13 @@
         <v>186</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16885,10 +16889,10 @@
         <v>180</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>77</v>
@@ -16906,7 +16910,7 @@
         <v>77</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>78</v>
@@ -16930,15 +16934,15 @@
         <v>77</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16964,10 +16968,10 @@
         <v>186</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="M125" t="s" s="2">
         <v>346</v>
@@ -16999,10 +17003,10 @@
         <v>180</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>77</v>
@@ -17020,7 +17024,7 @@
         <v>77</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>78</v>
@@ -17038,13 +17042,13 @@
         <v>77</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>77</v>
@@ -17052,7 +17056,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17075,13 +17079,13 @@
         <v>77</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="M126" t="s" s="2">
         <v>286</v>
@@ -17134,7 +17138,7 @@
         <v>77</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>78</v>
@@ -17152,13 +17156,13 @@
         <v>77</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>77</v>
@@ -17166,11 +17170,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17189,16 +17193,16 @@
         <v>77</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -17248,7 +17252,7 @@
         <v>77</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>78</v>
@@ -17266,7 +17270,7 @@
         <v>77</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>77</v>
@@ -17280,7 +17284,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17303,16 +17307,16 @@
         <v>77</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -17362,7 +17366,7 @@
         <v>77</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>78</v>
@@ -17380,7 +17384,7 @@
         <v>77</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4645" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4644" uniqueCount="763">
   <si>
     <t>Property</t>
   </si>
@@ -713,6 +713,9 @@
   </si>
   <si>
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -5028,13 +5031,11 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -5110,10 +5111,10 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -5310,7 +5311,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5333,19 +5334,19 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -5394,7 +5395,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -5412,7 +5413,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -5421,12 +5422,12 @@
         <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5452,10 +5453,10 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5538,7 +5539,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5652,7 +5653,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5678,16 +5679,16 @@
         <v>100</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -5736,7 +5737,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5754,7 +5755,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -5763,12 +5764,12 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5794,13 +5795,13 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5850,7 +5851,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5868,7 +5869,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5877,12 +5878,12 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5908,14 +5909,14 @@
         <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5964,7 +5965,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5982,7 +5983,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5991,12 +5992,12 @@
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -6022,14 +6023,14 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -6078,7 +6079,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -6096,7 +6097,7 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -6105,12 +6106,12 @@
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -6133,19 +6134,19 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -6194,7 +6195,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -6212,7 +6213,7 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -6221,12 +6222,12 @@
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -6252,16 +6253,16 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -6310,7 +6311,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -6328,7 +6329,7 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -6337,7 +6338,7 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32">
@@ -6345,7 +6346,7 @@
         <v>193</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>77</v>
@@ -6367,7 +6368,7 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>218</v>
@@ -6458,7 +6459,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6481,16 +6482,16 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6540,7 +6541,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -6555,24 +6556,24 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6595,16 +6596,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6654,7 +6655,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6669,10 +6670,10 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -6686,7 +6687,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6709,16 +6710,16 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6768,7 +6769,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6786,10 +6787,10 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -6800,7 +6801,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6823,13 +6824,13 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6880,7 +6881,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6895,10 +6896,10 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6912,7 +6913,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6938,10 +6939,10 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -7024,7 +7025,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -7138,11 +7139,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -7164,10 +7165,10 @@
         <v>131</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>147</v>
@@ -7222,7 +7223,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -7254,7 +7255,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7280,14 +7281,14 @@
         <v>186</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -7315,10 +7316,10 @@
         <v>180</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -7336,7 +7337,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -7354,7 +7355,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -7368,7 +7369,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7391,13 +7392,13 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -7448,7 +7449,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>86</v>
@@ -7463,10 +7464,10 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -7480,7 +7481,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7503,16 +7504,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7562,7 +7563,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7580,7 +7581,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -7594,7 +7595,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7617,16 +7618,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7676,7 +7677,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7691,24 +7692,24 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7734,13 +7735,13 @@
         <v>186</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7769,10 +7770,10 @@
         <v>180</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -7790,7 +7791,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7808,21 +7809,21 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7845,16 +7846,16 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7904,7 +7905,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7922,21 +7923,21 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7962,10 +7963,10 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -8048,7 +8049,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -8162,7 +8163,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8185,19 +8186,19 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -8246,7 +8247,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -8264,7 +8265,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -8273,12 +8274,12 @@
         <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8304,20 +8305,20 @@
         <v>106</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q49" t="s" s="2">
         <v>77</v>
@@ -8341,10 +8342,10 @@
         <v>169</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -8362,7 +8363,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -8380,7 +8381,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -8389,12 +8390,12 @@
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8420,14 +8421,14 @@
         <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -8476,7 +8477,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8494,7 +8495,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -8503,12 +8504,12 @@
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8534,14 +8535,14 @@
         <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -8590,7 +8591,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8599,7 +8600,7 @@
         <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>98</v>
@@ -8608,7 +8609,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -8617,12 +8618,12 @@
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8648,16 +8649,16 @@
         <v>106</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -8706,7 +8707,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8724,7 +8725,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -8733,12 +8734,12 @@
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8761,16 +8762,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8820,7 +8821,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8838,7 +8839,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -8847,12 +8848,12 @@
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8875,13 +8876,13 @@
         <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8932,7 +8933,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8950,21 +8951,21 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8987,13 +8988,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -9044,7 +9045,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -9059,24 +9060,24 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -9099,16 +9100,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -9158,7 +9159,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -9176,21 +9177,21 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9213,16 +9214,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -9272,7 +9273,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -9290,13 +9291,13 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -9304,7 +9305,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9327,16 +9328,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9386,7 +9387,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9401,10 +9402,10 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -9413,12 +9414,12 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9441,16 +9442,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9500,7 +9501,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9518,7 +9519,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -9532,7 +9533,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9558,7 +9559,7 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>209</v>
@@ -9644,7 +9645,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9758,10 +9759,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -9783,13 +9784,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9872,10 +9873,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>77</v>
@@ -9897,13 +9898,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9986,10 +9987,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>77</v>
@@ -10011,13 +10012,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -10100,10 +10101,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>77</v>
@@ -10125,13 +10126,13 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -10214,11 +10215,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -10240,10 +10241,10 @@
         <v>131</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>147</v>
@@ -10298,7 +10299,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -10330,7 +10331,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10353,17 +10354,17 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -10412,7 +10413,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10430,7 +10431,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -10439,12 +10440,12 @@
         <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10470,14 +10471,14 @@
         <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -10526,7 +10527,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10544,7 +10545,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -10553,12 +10554,12 @@
         <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10584,16 +10585,16 @@
         <v>186</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -10621,10 +10622,10 @@
         <v>180</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -10642,7 +10643,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10660,7 +10661,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -10669,12 +10670,12 @@
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10700,10 +10701,10 @@
         <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10754,7 +10755,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10772,7 +10773,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10781,12 +10782,12 @@
         <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10809,19 +10810,19 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10870,7 +10871,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10888,7 +10889,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10902,7 +10903,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10928,10 +10929,10 @@
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -11014,7 +11015,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11128,11 +11129,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -11154,10 +11155,10 @@
         <v>131</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>147</v>
@@ -11212,7 +11213,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -11244,7 +11245,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11267,17 +11268,17 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -11326,7 +11327,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -11344,7 +11345,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -11358,7 +11359,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11381,17 +11382,17 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -11440,7 +11441,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11452,13 +11453,13 @@
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -11472,7 +11473,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11498,10 +11499,10 @@
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11584,7 +11585,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11698,7 +11699,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11721,13 +11722,13 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11778,7 +11779,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11796,7 +11797,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11810,7 +11811,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11833,19 +11834,19 @@
         <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11894,7 +11895,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11912,7 +11913,7 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11926,7 +11927,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11949,13 +11950,13 @@
         <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -12006,7 +12007,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -12024,7 +12025,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -12038,7 +12039,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12061,19 +12062,19 @@
         <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
@@ -12122,7 +12123,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -12140,7 +12141,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -12154,7 +12155,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12177,19 +12178,19 @@
         <v>87</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -12238,7 +12239,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -12256,7 +12257,7 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -12270,7 +12271,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12296,10 +12297,10 @@
         <v>106</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12329,10 +12330,10 @@
         <v>169</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>77</v>
@@ -12350,7 +12351,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -12368,7 +12369,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -12382,7 +12383,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12405,13 +12406,13 @@
         <v>87</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12419,7 +12420,7 @@
         <v>77</v>
       </c>
       <c r="P85" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Q85" t="s" s="2">
         <v>77</v>
@@ -12464,7 +12465,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12482,7 +12483,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -12496,7 +12497,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12519,13 +12520,13 @@
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12576,7 +12577,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12594,7 +12595,7 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -12608,7 +12609,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12631,13 +12632,13 @@
         <v>87</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12688,7 +12689,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12706,7 +12707,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -12720,7 +12721,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12743,13 +12744,13 @@
         <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12800,7 +12801,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12818,7 +12819,7 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12832,7 +12833,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12858,10 +12859,10 @@
         <v>106</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12891,10 +12892,10 @@
         <v>169</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
@@ -12912,7 +12913,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12930,7 +12931,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12944,7 +12945,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12970,13 +12971,13 @@
         <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -13006,7 +13007,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -13024,7 +13025,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -13056,7 +13057,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13079,16 +13080,16 @@
         <v>87</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -13138,7 +13139,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -13170,7 +13171,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13196,16 +13197,16 @@
         <v>106</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>77</v>
@@ -13233,10 +13234,10 @@
         <v>169</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>77</v>
@@ -13254,7 +13255,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -13272,7 +13273,7 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -13286,7 +13287,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13309,13 +13310,13 @@
         <v>87</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13366,7 +13367,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -13384,7 +13385,7 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -13398,7 +13399,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13424,13 +13425,13 @@
         <v>186</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13459,10 +13460,10 @@
         <v>110</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
@@ -13480,7 +13481,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13498,7 +13499,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -13512,7 +13513,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13538,10 +13539,10 @@
         <v>88</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13624,7 +13625,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13738,7 +13739,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13761,19 +13762,19 @@
         <v>87</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>77</v>
@@ -13822,7 +13823,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13840,7 +13841,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13849,12 +13850,12 @@
         <v>77</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13880,10 +13881,10 @@
         <v>88</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13966,7 +13967,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14080,7 +14081,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14106,16 +14107,16 @@
         <v>100</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>77</v>
@@ -14164,7 +14165,7 @@
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>78</v>
@@ -14182,7 +14183,7 @@
         <v>77</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>77</v>
@@ -14191,12 +14192,12 @@
         <v>77</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14222,13 +14223,13 @@
         <v>88</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -14278,7 +14279,7 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>78</v>
@@ -14296,7 +14297,7 @@
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -14305,12 +14306,12 @@
         <v>77</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14336,14 +14337,14 @@
         <v>106</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>77</v>
@@ -14392,7 +14393,7 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>78</v>
@@ -14410,7 +14411,7 @@
         <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -14419,12 +14420,12 @@
         <v>77</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14450,14 +14451,14 @@
         <v>88</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>77</v>
@@ -14506,7 +14507,7 @@
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>78</v>
@@ -14524,7 +14525,7 @@
         <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>77</v>
@@ -14533,12 +14534,12 @@
         <v>77</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14561,19 +14562,19 @@
         <v>87</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>77</v>
@@ -14622,7 +14623,7 @@
         <v>77</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>78</v>
@@ -14640,7 +14641,7 @@
         <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>77</v>
@@ -14649,12 +14650,12 @@
         <v>77</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14680,16 +14681,16 @@
         <v>88</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>77</v>
@@ -14738,7 +14739,7 @@
         <v>77</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>78</v>
@@ -14756,7 +14757,7 @@
         <v>77</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>77</v>
@@ -14765,12 +14766,12 @@
         <v>77</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14793,16 +14794,16 @@
         <v>87</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14831,10 +14832,10 @@
         <v>180</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>77</v>
@@ -14852,7 +14853,7 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
@@ -14870,7 +14871,7 @@
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>77</v>
@@ -14879,12 +14880,12 @@
         <v>77</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14910,16 +14911,16 @@
         <v>186</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>77</v>
@@ -14947,10 +14948,10 @@
         <v>180</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>77</v>
@@ -14968,7 +14969,7 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -14986,7 +14987,7 @@
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14995,12 +14996,12 @@
         <v>77</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15026,16 +15027,16 @@
         <v>186</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>77</v>
@@ -15063,10 +15064,10 @@
         <v>180</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>77</v>
@@ -15084,7 +15085,7 @@
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>78</v>
@@ -15102,7 +15103,7 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -15111,12 +15112,12 @@
         <v>77</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15142,16 +15143,16 @@
         <v>186</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>77</v>
@@ -15179,10 +15180,10 @@
         <v>180</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>77</v>
@@ -15200,7 +15201,7 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>78</v>
@@ -15218,7 +15219,7 @@
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -15227,12 +15228,12 @@
         <v>77</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15255,13 +15256,13 @@
         <v>87</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -15312,7 +15313,7 @@
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>78</v>
@@ -15339,12 +15340,12 @@
         <v>77</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15370,10 +15371,10 @@
         <v>88</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -15456,7 +15457,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15570,7 +15571,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15596,14 +15597,14 @@
         <v>186</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>77</v>
@@ -15631,10 +15632,10 @@
         <v>180</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>77</v>
@@ -15652,7 +15653,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>78</v>
@@ -15679,12 +15680,12 @@
         <v>77</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15707,19 +15708,19 @@
         <v>87</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>77</v>
@@ -15768,7 +15769,7 @@
         <v>77</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>78</v>
@@ -15786,7 +15787,7 @@
         <v>77</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>77</v>
@@ -15795,12 +15796,12 @@
         <v>77</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15823,19 +15824,19 @@
         <v>87</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>77</v>
@@ -15884,7 +15885,7 @@
         <v>77</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>78</v>
@@ -15902,7 +15903,7 @@
         <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
@@ -15911,12 +15912,12 @@
         <v>77</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15939,19 +15940,19 @@
         <v>87</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>77</v>
@@ -16000,7 +16001,7 @@
         <v>77</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>78</v>
@@ -16018,7 +16019,7 @@
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>77</v>
@@ -16027,12 +16028,12 @@
         <v>77</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16055,19 +16056,19 @@
         <v>87</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>77</v>
@@ -16116,7 +16117,7 @@
         <v>77</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>78</v>
@@ -16134,7 +16135,7 @@
         <v>77</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>77</v>
@@ -16148,7 +16149,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16171,17 +16172,17 @@
         <v>87</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>77</v>
@@ -16230,7 +16231,7 @@
         <v>77</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>78</v>
@@ -16248,7 +16249,7 @@
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>77</v>
@@ -16262,7 +16263,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16285,13 +16286,13 @@
         <v>77</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16342,7 +16343,7 @@
         <v>77</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>78</v>
@@ -16360,13 +16361,13 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>77</v>
@@ -16374,7 +16375,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16400,10 +16401,10 @@
         <v>88</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -16486,7 +16487,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16600,11 +16601,11 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16626,10 +16627,10 @@
         <v>131</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>147</v>
@@ -16684,7 +16685,7 @@
         <v>77</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>78</v>
@@ -16716,7 +16717,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16739,13 +16740,13 @@
         <v>77</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16796,7 +16797,7 @@
         <v>77</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>86</v>
@@ -16814,7 +16815,7 @@
         <v>77</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>77</v>
@@ -16828,7 +16829,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16854,13 +16855,13 @@
         <v>186</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16889,10 +16890,10 @@
         <v>180</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>77</v>
@@ -16910,7 +16911,7 @@
         <v>77</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>78</v>
@@ -16928,21 +16929,21 @@
         <v>77</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16968,13 +16969,13 @@
         <v>186</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -17003,10 +17004,10 @@
         <v>180</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>77</v>
@@ -17024,7 +17025,7 @@
         <v>77</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>78</v>
@@ -17042,13 +17043,13 @@
         <v>77</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>77</v>
@@ -17056,7 +17057,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17079,16 +17080,16 @@
         <v>77</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -17138,7 +17139,7 @@
         <v>77</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>78</v>
@@ -17156,13 +17157,13 @@
         <v>77</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>77</v>
@@ -17170,11 +17171,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17193,16 +17194,16 @@
         <v>77</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -17252,7 +17253,7 @@
         <v>77</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>78</v>
@@ -17270,7 +17271,7 @@
         <v>77</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>77</v>
@@ -17284,7 +17285,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17307,16 +17308,16 @@
         <v>77</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -17366,7 +17367,7 @@
         <v>77</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>78</v>
@@ -17384,7 +17385,7 @@
         <v>77</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4644" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4644" uniqueCount="764">
   <si>
     <t>Property</t>
   </si>
@@ -280,7 +280,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -673,6 +673,10 @@
   </si>
   <si>
     <t>MedicationDispense.medication[x].id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing 要素間参照用の一意のID</t>
@@ -4768,13 +4772,13 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4825,7 +4829,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -4843,7 +4847,7 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>77</v>
@@ -4857,7 +4861,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4883,10 +4887,10 @@
         <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>147</v>
@@ -4930,7 +4934,7 @@
         <v>134</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>77</v>
@@ -4939,7 +4943,7 @@
         <v>135</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4957,7 +4961,7 @@
         <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -4974,7 +4978,7 @@
         <v>193</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>77</v>
@@ -4999,13 +5003,13 @@
         <v>186</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -5035,7 +5039,7 @@
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -5108,13 +5112,13 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -5165,7 +5169,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -5183,7 +5187,7 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -5197,7 +5201,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -5223,10 +5227,10 @@
         <v>131</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>147</v>
@@ -5270,7 +5274,7 @@
         <v>134</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>77</v>
@@ -5279,7 +5283,7 @@
         <v>135</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -5297,7 +5301,7 @@
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>77</v>
@@ -5311,7 +5315,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -5334,19 +5338,19 @@
         <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -5395,7 +5399,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -5413,7 +5417,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -5422,12 +5426,12 @@
         <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5450,13 +5454,13 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5507,7 +5511,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -5525,7 +5529,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -5539,7 +5543,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5565,10 +5569,10 @@
         <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>147</v>
@@ -5612,7 +5616,7 @@
         <v>134</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>77</v>
@@ -5621,7 +5625,7 @@
         <v>135</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -5639,7 +5643,7 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -5653,7 +5657,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5679,16 +5683,16 @@
         <v>100</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -5737,7 +5741,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5755,7 +5759,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -5764,12 +5768,12 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5792,16 +5796,16 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5851,7 +5855,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5869,7 +5873,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5878,12 +5882,12 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5909,14 +5913,14 @@
         <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5965,7 +5969,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5983,7 +5987,7 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5992,12 +5996,12 @@
         <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -6020,17 +6024,17 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -6079,7 +6083,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -6097,7 +6101,7 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -6106,12 +6110,12 @@
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -6134,19 +6138,19 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -6195,7 +6199,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -6213,7 +6217,7 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -6222,12 +6226,12 @@
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -6250,19 +6254,19 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -6311,7 +6315,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -6329,7 +6333,7 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -6338,7 +6342,7 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32">
@@ -6346,7 +6350,7 @@
         <v>193</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>77</v>
@@ -6368,16 +6372,16 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -6459,7 +6463,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6482,16 +6486,16 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6541,7 +6545,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -6556,24 +6560,24 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6596,16 +6600,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -6655,7 +6659,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6670,10 +6674,10 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -6687,7 +6691,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6710,16 +6714,16 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -6769,7 +6773,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -6787,10 +6791,10 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -6801,7 +6805,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6824,13 +6828,13 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6881,7 +6885,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6896,10 +6900,10 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6913,7 +6917,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6936,13 +6940,13 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6993,7 +6997,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -7011,7 +7015,7 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -7025,7 +7029,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -7051,10 +7055,10 @@
         <v>131</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>147</v>
@@ -7107,7 +7111,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -7125,7 +7129,7 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -7139,11 +7143,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -7165,10 +7169,10 @@
         <v>131</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>147</v>
@@ -7223,7 +7227,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -7255,7 +7259,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -7281,14 +7285,14 @@
         <v>186</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -7316,10 +7320,10 @@
         <v>180</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -7337,7 +7341,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -7355,7 +7359,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -7369,7 +7373,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7392,13 +7396,13 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -7449,7 +7453,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>86</v>
@@ -7464,10 +7468,10 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -7481,7 +7485,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7504,16 +7508,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7563,7 +7567,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -7581,7 +7585,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -7595,7 +7599,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7618,16 +7622,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7677,7 +7681,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7692,24 +7696,24 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7735,13 +7739,13 @@
         <v>186</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7770,10 +7774,10 @@
         <v>180</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -7791,7 +7795,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7809,21 +7813,21 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7846,16 +7850,16 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7905,7 +7909,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7923,21 +7927,21 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7960,13 +7964,13 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -8017,7 +8021,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -8035,7 +8039,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -8049,7 +8053,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -8075,10 +8079,10 @@
         <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>147</v>
@@ -8122,7 +8126,7 @@
         <v>134</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>77</v>
@@ -8131,7 +8135,7 @@
         <v>135</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -8149,7 +8153,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -8163,7 +8167,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8186,19 +8190,19 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -8247,7 +8251,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -8265,7 +8269,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -8274,12 +8278,12 @@
         <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8305,20 +8309,20 @@
         <v>106</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q49" t="s" s="2">
         <v>77</v>
@@ -8342,10 +8346,10 @@
         <v>169</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -8363,7 +8367,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -8381,7 +8385,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -8390,12 +8394,12 @@
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8418,17 +8422,17 @@
         <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -8477,7 +8481,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -8495,7 +8499,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -8504,12 +8508,12 @@
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8535,14 +8539,14 @@
         <v>100</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -8591,7 +8595,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8600,7 +8604,7 @@
         <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>98</v>
@@ -8609,7 +8613,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -8618,12 +8622,12 @@
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8649,16 +8653,16 @@
         <v>106</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -8707,7 +8711,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8725,7 +8729,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -8734,12 +8738,12 @@
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8762,16 +8766,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8821,7 +8825,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8839,7 +8843,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -8848,12 +8852,12 @@
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8876,13 +8880,13 @@
         <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8933,7 +8937,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8951,21 +8955,21 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8988,13 +8992,13 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -9045,7 +9049,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -9060,24 +9064,24 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -9100,16 +9104,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -9159,7 +9163,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -9177,21 +9181,21 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9214,16 +9218,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -9273,7 +9277,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -9291,13 +9295,13 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -9305,7 +9309,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9328,16 +9332,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9387,7 +9391,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -9402,10 +9406,10 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -9414,12 +9418,12 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9442,16 +9446,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9501,7 +9505,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -9519,7 +9523,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -9533,7 +9537,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9556,13 +9560,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9613,7 +9617,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9631,7 +9635,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -9645,7 +9649,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9671,10 +9675,10 @@
         <v>131</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M61" t="s" s="2">
         <v>147</v>
@@ -9718,7 +9722,7 @@
         <v>134</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC61" t="s" s="2">
         <v>77</v>
@@ -9727,7 +9731,7 @@
         <v>135</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9745,7 +9749,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -9759,10 +9763,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>77</v>
@@ -9784,13 +9788,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9841,7 +9845,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9873,10 +9877,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>77</v>
@@ -9898,13 +9902,13 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9955,7 +9959,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9987,10 +9991,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>77</v>
@@ -10012,13 +10016,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -10069,7 +10073,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -10101,10 +10105,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>77</v>
@@ -10126,13 +10130,13 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -10183,7 +10187,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -10215,11 +10219,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -10241,10 +10245,10 @@
         <v>131</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>147</v>
@@ -10299,7 +10303,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -10331,7 +10335,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10354,17 +10358,17 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -10413,7 +10417,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -10431,7 +10435,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -10440,12 +10444,12 @@
         <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10468,17 +10472,17 @@
         <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -10527,7 +10531,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -10545,7 +10549,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -10554,12 +10558,12 @@
         <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10585,16 +10589,16 @@
         <v>186</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -10622,10 +10626,10 @@
         <v>180</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -10643,7 +10647,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10661,7 +10665,7 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -10670,12 +10674,12 @@
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10698,13 +10702,13 @@
         <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10755,7 +10759,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10773,7 +10777,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10782,12 +10786,12 @@
         <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10810,19 +10814,19 @@
         <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10871,7 +10875,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10889,7 +10893,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10903,7 +10907,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10926,13 +10930,13 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10983,7 +10987,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -11001,7 +11005,7 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -11015,7 +11019,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11041,10 +11045,10 @@
         <v>131</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>147</v>
@@ -11088,7 +11092,7 @@
         <v>134</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>77</v>
@@ -11097,7 +11101,7 @@
         <v>135</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -11115,7 +11119,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -11129,11 +11133,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -11155,10 +11159,10 @@
         <v>131</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>147</v>
@@ -11213,7 +11217,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -11245,7 +11249,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11268,17 +11272,17 @@
         <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -11327,7 +11331,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -11345,7 +11349,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -11359,7 +11363,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11382,17 +11386,17 @@
         <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>77</v>
@@ -11441,7 +11445,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -11453,13 +11457,13 @@
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -11473,7 +11477,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11496,13 +11500,13 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -11553,7 +11557,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -11571,7 +11575,7 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
@@ -11585,7 +11589,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11611,10 +11615,10 @@
         <v>131</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>147</v>
@@ -11658,7 +11662,7 @@
         <v>134</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>77</v>
@@ -11667,7 +11671,7 @@
         <v>135</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11685,7 +11689,7 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -11699,7 +11703,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11722,13 +11726,13 @@
         <v>87</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11779,7 +11783,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11797,7 +11801,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>
@@ -11811,7 +11815,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11834,19 +11838,19 @@
         <v>87</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>77</v>
@@ -11895,7 +11899,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11913,7 +11917,7 @@
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>77</v>
@@ -11927,7 +11931,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11950,13 +11954,13 @@
         <v>87</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -12007,7 +12011,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -12025,7 +12029,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>77</v>
@@ -12039,7 +12043,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12062,19 +12066,19 @@
         <v>87</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>77</v>
@@ -12123,7 +12127,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -12141,7 +12145,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>77</v>
@@ -12155,7 +12159,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12178,19 +12182,19 @@
         <v>87</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>77</v>
@@ -12239,7 +12243,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -12257,7 +12261,7 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>77</v>
@@ -12271,7 +12275,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12297,10 +12301,10 @@
         <v>106</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -12330,10 +12334,10 @@
         <v>169</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>77</v>
@@ -12351,7 +12355,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -12369,7 +12373,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -12383,7 +12387,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12406,13 +12410,13 @@
         <v>87</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -12420,7 +12424,7 @@
         <v>77</v>
       </c>
       <c r="P85" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="Q85" t="s" s="2">
         <v>77</v>
@@ -12465,7 +12469,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -12483,7 +12487,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -12497,7 +12501,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12520,13 +12524,13 @@
         <v>87</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -12577,7 +12581,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -12595,7 +12599,7 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -12609,7 +12613,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12632,13 +12636,13 @@
         <v>87</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -12689,7 +12693,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12707,7 +12711,7 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -12721,7 +12725,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12744,13 +12748,13 @@
         <v>87</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12801,7 +12805,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12819,7 +12823,7 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -12833,7 +12837,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12859,10 +12863,10 @@
         <v>106</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -12892,10 +12896,10 @@
         <v>169</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>77</v>
@@ -12913,7 +12917,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12931,7 +12935,7 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -12945,7 +12949,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12971,13 +12975,13 @@
         <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -13007,7 +13011,7 @@
       </c>
       <c r="X90" s="2"/>
       <c r="Y90" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>77</v>
@@ -13025,7 +13029,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -13043,7 +13047,7 @@
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -13057,7 +13061,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13080,16 +13084,16 @@
         <v>87</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
@@ -13139,7 +13143,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -13157,7 +13161,7 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
@@ -13171,7 +13175,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13197,16 +13201,16 @@
         <v>106</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>77</v>
@@ -13234,10 +13238,10 @@
         <v>169</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>77</v>
@@ -13255,7 +13259,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -13273,7 +13277,7 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -13287,7 +13291,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13310,13 +13314,13 @@
         <v>87</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -13367,7 +13371,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -13385,7 +13389,7 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -13399,7 +13403,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13425,13 +13429,13 @@
         <v>186</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13460,10 +13464,10 @@
         <v>110</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>77</v>
@@ -13481,7 +13485,7 @@
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -13499,7 +13503,7 @@
         <v>77</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -13513,7 +13517,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13536,13 +13540,13 @@
         <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13593,7 +13597,7 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
@@ -13611,7 +13615,7 @@
         <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -13625,7 +13629,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13651,10 +13655,10 @@
         <v>131</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M96" t="s" s="2">
         <v>147</v>
@@ -13698,7 +13702,7 @@
         <v>134</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC96" t="s" s="2">
         <v>77</v>
@@ -13707,7 +13711,7 @@
         <v>135</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
@@ -13725,7 +13729,7 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -13739,7 +13743,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13762,19 +13766,19 @@
         <v>87</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>77</v>
@@ -13823,7 +13827,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13841,7 +13845,7 @@
         <v>77</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -13850,12 +13854,12 @@
         <v>77</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13878,13 +13882,13 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13935,7 +13939,7 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
@@ -13953,7 +13957,7 @@
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
@@ -13967,7 +13971,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13993,10 +13997,10 @@
         <v>131</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>147</v>
@@ -14040,7 +14044,7 @@
         <v>134</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC99" t="s" s="2">
         <v>77</v>
@@ -14049,7 +14053,7 @@
         <v>135</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>78</v>
@@ -14067,7 +14071,7 @@
         <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>
@@ -14081,7 +14085,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14107,16 +14111,16 @@
         <v>100</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>77</v>
@@ -14165,7 +14169,7 @@
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>78</v>
@@ -14183,7 +14187,7 @@
         <v>77</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>77</v>
@@ -14192,12 +14196,12 @@
         <v>77</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14220,16 +14224,16 @@
         <v>87</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
@@ -14279,7 +14283,7 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>78</v>
@@ -14297,7 +14301,7 @@
         <v>77</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -14306,12 +14310,12 @@
         <v>77</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14337,14 +14341,14 @@
         <v>106</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>77</v>
@@ -14393,7 +14397,7 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>78</v>
@@ -14411,7 +14415,7 @@
         <v>77</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>77</v>
@@ -14420,12 +14424,12 @@
         <v>77</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14448,17 +14452,17 @@
         <v>87</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O103" t="s" s="2">
         <v>77</v>
@@ -14507,7 +14511,7 @@
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>78</v>
@@ -14525,7 +14529,7 @@
         <v>77</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>77</v>
@@ -14534,12 +14538,12 @@
         <v>77</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14562,19 +14566,19 @@
         <v>87</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>77</v>
@@ -14623,7 +14627,7 @@
         <v>77</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>78</v>
@@ -14641,7 +14645,7 @@
         <v>77</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>77</v>
@@ -14650,12 +14654,12 @@
         <v>77</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14678,19 +14682,19 @@
         <v>87</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>77</v>
@@ -14739,7 +14743,7 @@
         <v>77</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>78</v>
@@ -14757,7 +14761,7 @@
         <v>77</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>77</v>
@@ -14766,12 +14770,12 @@
         <v>77</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14794,16 +14798,16 @@
         <v>87</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -14832,10 +14836,10 @@
         <v>180</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="Z106" t="s" s="2">
         <v>77</v>
@@ -14853,7 +14857,7 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
@@ -14871,7 +14875,7 @@
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>77</v>
@@ -14880,12 +14884,12 @@
         <v>77</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14911,16 +14915,16 @@
         <v>186</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>77</v>
@@ -14948,10 +14952,10 @@
         <v>180</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>77</v>
@@ -14969,7 +14973,7 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -14987,7 +14991,7 @@
         <v>77</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>77</v>
@@ -14996,12 +15000,12 @@
         <v>77</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15027,16 +15031,16 @@
         <v>186</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>77</v>
@@ -15064,10 +15068,10 @@
         <v>180</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>77</v>
@@ -15085,7 +15089,7 @@
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>78</v>
@@ -15103,7 +15107,7 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>77</v>
@@ -15112,12 +15116,12 @@
         <v>77</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15143,16 +15147,16 @@
         <v>186</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>77</v>
@@ -15180,10 +15184,10 @@
         <v>180</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>77</v>
@@ -15201,7 +15205,7 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>78</v>
@@ -15219,7 +15223,7 @@
         <v>77</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>77</v>
@@ -15228,12 +15232,12 @@
         <v>77</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15256,13 +15260,13 @@
         <v>87</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -15313,7 +15317,7 @@
         <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>78</v>
@@ -15340,12 +15344,12 @@
         <v>77</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15368,13 +15372,13 @@
         <v>77</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -15425,7 +15429,7 @@
         <v>77</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>78</v>
@@ -15443,7 +15447,7 @@
         <v>77</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>77</v>
@@ -15457,7 +15461,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15483,10 +15487,10 @@
         <v>131</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M112" t="s" s="2">
         <v>147</v>
@@ -15530,7 +15534,7 @@
         <v>134</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AC112" t="s" s="2">
         <v>77</v>
@@ -15539,7 +15543,7 @@
         <v>135</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>78</v>
@@ -15557,7 +15561,7 @@
         <v>77</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>77</v>
@@ -15571,7 +15575,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15597,14 +15601,14 @@
         <v>186</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>77</v>
@@ -15632,10 +15636,10 @@
         <v>180</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>77</v>
@@ -15653,7 +15657,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>78</v>
@@ -15680,12 +15684,12 @@
         <v>77</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15708,19 +15712,19 @@
         <v>87</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>77</v>
@@ -15769,7 +15773,7 @@
         <v>77</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>78</v>
@@ -15787,7 +15791,7 @@
         <v>77</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>77</v>
@@ -15796,12 +15800,12 @@
         <v>77</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15824,19 +15828,19 @@
         <v>87</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>77</v>
@@ -15885,7 +15889,7 @@
         <v>77</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>78</v>
@@ -15903,7 +15907,7 @@
         <v>77</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>77</v>
@@ -15912,12 +15916,12 @@
         <v>77</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15940,19 +15944,19 @@
         <v>87</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>77</v>
@@ -16001,7 +16005,7 @@
         <v>77</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>78</v>
@@ -16019,7 +16023,7 @@
         <v>77</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>77</v>
@@ -16028,12 +16032,12 @@
         <v>77</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16056,19 +16060,19 @@
         <v>87</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>77</v>
@@ -16117,7 +16121,7 @@
         <v>77</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>78</v>
@@ -16135,7 +16139,7 @@
         <v>77</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>77</v>
@@ -16149,7 +16153,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16172,17 +16176,17 @@
         <v>87</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M118" s="2"/>
       <c r="N118" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>77</v>
@@ -16231,7 +16235,7 @@
         <v>77</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>78</v>
@@ -16249,7 +16253,7 @@
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>77</v>
@@ -16263,7 +16267,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16286,13 +16290,13 @@
         <v>77</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -16343,7 +16347,7 @@
         <v>77</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>78</v>
@@ -16361,13 +16365,13 @@
         <v>77</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>77</v>
@@ -16375,7 +16379,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16398,13 +16402,13 @@
         <v>77</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>88</v>
+        <v>208</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -16455,7 +16459,7 @@
         <v>77</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>78</v>
@@ -16473,7 +16477,7 @@
         <v>77</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>77</v>
@@ -16487,7 +16491,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16513,10 +16517,10 @@
         <v>131</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M121" t="s" s="2">
         <v>147</v>
@@ -16569,7 +16573,7 @@
         <v>77</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>78</v>
@@ -16587,7 +16591,7 @@
         <v>77</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>77</v>
@@ -16601,11 +16605,11 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16627,10 +16631,10 @@
         <v>131</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>147</v>
@@ -16685,7 +16689,7 @@
         <v>77</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>78</v>
@@ -16717,7 +16721,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16740,13 +16744,13 @@
         <v>77</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
@@ -16797,7 +16801,7 @@
         <v>77</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>86</v>
@@ -16815,7 +16819,7 @@
         <v>77</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>77</v>
@@ -16829,7 +16833,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16855,13 +16859,13 @@
         <v>186</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -16890,10 +16894,10 @@
         <v>180</v>
       </c>
       <c r="X124" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="Y124" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="Z124" t="s" s="2">
         <v>77</v>
@@ -16911,7 +16915,7 @@
         <v>77</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>78</v>
@@ -16929,21 +16933,21 @@
         <v>77</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM124" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AN124" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16969,13 +16973,13 @@
         <v>186</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -17004,10 +17008,10 @@
         <v>180</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>77</v>
@@ -17025,7 +17029,7 @@
         <v>77</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>78</v>
@@ -17043,13 +17047,13 @@
         <v>77</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>77</v>
@@ -17057,7 +17061,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17080,16 +17084,16 @@
         <v>77</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -17139,7 +17143,7 @@
         <v>77</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>78</v>
@@ -17157,13 +17161,13 @@
         <v>77</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>77</v>
@@ -17171,11 +17175,11 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17194,16 +17198,16 @@
         <v>77</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -17253,7 +17257,7 @@
         <v>77</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>78</v>
@@ -17271,7 +17275,7 @@
         <v>77</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>77</v>
@@ -17285,7 +17289,7 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17308,16 +17312,16 @@
         <v>77</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -17367,7 +17371,7 @@
         <v>77</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>78</v>
@@ -17385,7 +17389,7 @@
         <v>77</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="378">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -258,7 +258,7 @@
     <t>指定された患者への薬剤の払い出し</t>
   </si>
   <si>
-    <t>指定された患者・個人へ薬剤が払い出されたか払い出される予定のものを示す。これには（供給される）提供される製品についての説明や薬剤の服用に関する指示も含まれる。薬剤払い出しは薬剤オーダーに対して薬局システムが対応した結果となる。</t>
+    <t>指定された患者・個人へ薬剤が払い出されたか払い出される予定のものを示す。これには（供給される）提供される製品についての説明や薬剤の服用に関する指示も含まれる。薬剤払い出しは薬剤オーダに対して薬局システムが対応した結果となる。</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -533,7 +533,7 @@
     <t>MedicationDispense.status</t>
   </si>
   <si>
-    <t>preparation | in-progress | cancelled | on-hold | completed | entered-in-error | stopped | unknown</t>
+    <t>preparation | in-progress | cancelled | on-hold | completed | entered-in-error | stopped | unknown 一連の調剤イベントの状態</t>
   </si>
   <si>
     <t>A code specifying the state of the set of dispense events.
@@ -702,11 +702,11 @@
 </t>
   </si>
   <si>
-    <t>Encounter / Episode associated with event　調剤ベントに関連するエンカウンターやエピソード</t>
+    <t>Encounter / Episode associated with event　調剤ベントに関連するEncounterやエピソード</t>
   </si>
   <si>
     <t>The encounter or episode of care that establishes the context for this event.
-調剤ベントに関連するエンカウンターやエピソードへの参照。</t>
+調剤ベントに関連するEncounterやエピソードへの参照。</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -892,7 +892,7 @@
     <t>MedicationDispense.type</t>
   </si>
   <si>
-    <t>Trial fill, partial fill, emergency fill, etc.</t>
+    <t>実行される調剤イベント</t>
   </si>
   <si>
     <t>Indicates the type of dispensing event that is performed. For example, Trial Fill, Completion of Trial, Partial Fill, Emergency Fill, Samples, etc.
@@ -900,7 +900,7 @@
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
+すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
   </si>
   <si>
     <t>Indicates the type of dispensing event that is performed. For example, Trial Fill, Completion of Trial, Partial Fill, Emergency Fill, Samples, etc.</t>
@@ -925,7 +925,7 @@
 </t>
   </si>
   <si>
-    <t>払い出される薬剤の量</t>
+    <t>Trial fill, partial fill, emergency fill, etc. 払い出される薬剤の量</t>
   </si>
   <si>
     <t>調剤総量。
@@ -1052,7 +1052,7 @@
   <si>
     <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).
 構造化された注釈（アノテーション）を持たないシステムの場合、作成者や時間なしで単一の注釈を簡単に伝達できる。情報を変更する可能性があるため、この要素をナラティブに含める必要がある場合がある。 
-*注釈は、計算機処理れきる「変更」情報を伝達するために使用されるべきではない*。 （ユーザーの行動を強制することはほとんど不可能であるため、これはSHOULDとする）。</t>
+*注釈は、計算機処理れきる「変更」情報を伝達するために使用されるべきではない*。 （ユーザの行動を強制することはほとんど不可能であるため、これはSHOULDとする）。</t>
   </si>
   <si>
     <t>Event.note</t>
@@ -1071,10 +1071,7 @@
 </t>
   </si>
   <si>
-    <t>How the medication is/was taken or should be taken</t>
-  </si>
-  <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>薬の服用方法・服用した方法、または服用すべき方法</t>
   </si>
   <si>
     <t>When the dose or rate is intended to change over the entire administration period (e.g. Tapering dose prescriptions), multiple instances of dosage instructions will need to be supplied to convey the different doses/rates.@@ -1087,7 +1084,7 @@
     <t>MedicationDispense.substitution</t>
   </si>
   <si>
-    <t>Whether a substitution was performed on the dispense　調剤で置換が実行されたかどうか。</t>
+    <t>Whether a substitution was performed on the dispense　調剤で置換が実行されたかどうか</t>
   </si>
   <si>
     <t>Indicates whether or not substitution was made as part of the dispense. In some cases, substitution will be expected but does not happen, in other cases substitution is not expected but does happen. This block explains what substitution did or did not happen and why. If nothing is specified, substitution was not done. 
@@ -1116,7 +1113,7 @@
 </t>
   </si>
   <si>
-    <t>Whether a substitution was or was not performed on the dispense　調剤で置換が実行されたか、あるいはされていないかを'true'または'false'で表す。</t>
+    <t>Whether a substitution was or was not performed on the dispense　調剤で置換が実行されたか、あるいはされていないかを'true'または'false'で表す</t>
   </si>
   <si>
     <t>True if the dispenser dispensed a different drug or product from what was prescribed. 
@@ -5730,10 +5727,10 @@
         <v>328</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5801,7 +5798,7 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -5815,7 +5812,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5841,10 +5838,10 @@
         <v>227</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5895,7 +5892,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -5913,13 +5910,13 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -5927,7 +5924,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6039,7 +6036,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6153,7 +6150,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6269,7 +6266,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6292,13 +6289,13 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6349,7 +6346,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>86</v>
@@ -6367,7 +6364,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6381,7 +6378,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6407,13 +6404,13 @@
         <v>186</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6442,11 +6439,11 @@
         <v>180</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6463,7 +6460,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6487,15 +6484,15 @@
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>352</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6521,10 +6518,10 @@
         <v>186</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>277</v>
@@ -6556,11 +6553,11 @@
         <v>180</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6577,7 +6574,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -6595,13 +6592,13 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6609,7 +6606,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6632,13 +6629,13 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>209</v>
@@ -6691,7 +6688,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6709,13 +6706,13 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -6723,11 +6720,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6746,16 +6743,16 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6805,7 +6802,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -6823,7 +6820,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -6837,7 +6834,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6860,16 +6857,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6919,7 +6916,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -6937,7 +6934,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="448">
   <si>
     <t>Property</t>
   </si>
@@ -489,25 +489,272 @@
 </t>
   </si>
   <si>
-    <t>External identifier</t>
-  </si>
-  <si>
-    <t>Identifiers associated with this Medication Dispense that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
+    <t>外部から参照されるID</t>
+  </si>
+  <si>
+    <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。
+処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。
+このIDは業務手順によって定められた処方オーダに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
+  </si>
+  <si>
+    <t>これは業務IDであって、リソースに対するIDではない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>CombinedMedicationDispense.id</t>
+  </si>
+  <si>
+    <t>rpNumber</t>
+  </si>
+  <si>
+    <t>処方箋内部の剤グループとしてのRp番号</t>
+  </si>
+  <si>
+    <t>処方箋内で同一用法の薬剤を慣用的にまとめて、Rpに番号をつけて剤グループとして一括指定されることがある。このスライスでは剤グループに対して割り振られたRp番号を記録する。</t>
+  </si>
+  <si>
+    <t>剤グループに複数の薬剤が含まれる場合、このグループ内の薬剤には同じRp番号が割り振られる。</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.system</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)についてのsystem値</t>
+  </si>
+  <si>
+    <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.81</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.value</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)。"1"など。</t>
+  </si>
+  <si>
+    <t>value は string型であり、数値はゼロサプレス、つまり、'01'でなく'1'と指定すること。</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>MedicationDispense.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>requestIdentifier</t>
+  </si>
+  <si>
+    <t>処方オーダに対するID(MedicationRequestからの継承)</t>
+  </si>
+  <si>
+    <t>薬剤をオーダする単位としての処方箋に対するID。原則として調剤の基となったMedicationRequestのIDを設定する。</t>
   </si>
   <si>
     <t>This is a business identifier, not a resource identifier.</t>
   </si>
   <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>CombinedMedicationDispense.id</t>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>MedicationDispense.partOf</t>
@@ -543,9 +790,6 @@
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>A coded concept specifying the state of the dispense event.</t>
   </si>
   <si>
@@ -594,10 +838,6 @@
   </si>
   <si>
     <t>MedicationDispense.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Type of medication dispense　調剤タイプ</t>
@@ -758,32 +998,7 @@
     <t>MedicationDispense.performer.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationDispense.performer.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationDispense.performer.modifierExtension</t>
@@ -1551,7 +1766,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN47"/>
+  <dimension ref="A1:AN65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1561,7 +1776,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="48.12109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1587,7 +1802,7 @@
     <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="46.84375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2868,7 +3083,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>79</v>
@@ -2930,16 +3145,14 @@
         <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>150</v>
@@ -2957,16 +3170,16 @@
         <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -2974,18 +3187,20 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="C13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>77</v>
@@ -2997,7 +3212,7 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>161</v>
@@ -3005,7 +3220,9 @@
       <c r="L13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>77</v>
@@ -3054,7 +3271,7 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>78</v>
@@ -3069,16 +3286,16 @@
         <v>98</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -3086,7 +3303,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3094,7 +3311,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>86</v>
@@ -3103,13 +3320,13 @@
         <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>166</v>
@@ -3117,9 +3334,7 @@
       <c r="L14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>168</v>
-      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>77</v>
@@ -3144,55 +3359,55 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="X14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="AL14" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3200,18 +3415,18 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>77</v>
@@ -3223,15 +3438,17 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>77</v>
@@ -3256,49 +3473,49 @@
         <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -3312,7 +3529,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3329,24 +3546,26 @@
         <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3370,13 +3589,13 @@
         <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>77</v>
@@ -3394,7 +3613,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3412,7 +3631,7 @@
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3421,12 +3640,12 @@
         <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3434,7 +3653,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>86</v>
@@ -3449,18 +3668,20 @@
         <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3484,13 +3705,13 @@
         <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>77</v>
@@ -3508,10 +3729,10 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>86</v>
@@ -3523,24 +3744,24 @@
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3563,30 +3784,32 @@
         <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>77</v>
@@ -3622,7 +3845,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>78</v>
@@ -3637,24 +3860,24 @@
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3662,7 +3885,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>86</v>
@@ -3674,16 +3897,16 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>209</v>
@@ -3700,7 +3923,7 @@
         <v>77</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>77</v>
@@ -3736,7 +3959,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -3751,10 +3974,10 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -3763,12 +3986,12 @@
         <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3779,7 +4002,7 @@
         <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>77</v>
@@ -3788,20 +4011,18 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>77</v>
@@ -3850,13 +4071,13 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>77</v>
@@ -3868,21 +4089,21 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3893,7 +4114,7 @@
         <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>77</v>
@@ -3902,18 +4123,20 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>77</v>
@@ -3968,7 +4191,7 @@
         <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>77</v>
@@ -3977,10 +4200,10 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>230</v>
+        <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -3989,14 +4212,16 @@
         <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4005,7 +4230,7 @@
         <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>77</v>
@@ -4017,15 +4242,17 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>233</v>
+        <v>151</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4074,31 +4301,31 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>236</v>
+        <v>150</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>237</v>
+        <v>157</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4106,18 +4333,18 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>164</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>77</v>
@@ -4129,17 +4356,15 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>239</v>
+        <v>166</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4188,25 +4413,25 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>237</v>
+        <v>169</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4220,11 +4445,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4237,26 +4462,24 @@
         <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>172</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N24" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4292,19 +4515,19 @@
         <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>246</v>
+        <v>174</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4322,7 +4545,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4336,7 +4559,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>175</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4353,23 +4576,25 @@
         <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>248</v>
+        <v>176</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="N25" t="s" s="2">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4397,10 +4622,10 @@
         <v>180</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>251</v>
+        <v>181</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>77</v>
@@ -4418,7 +4643,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>247</v>
+        <v>183</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4436,7 +4661,7 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>253</v>
+        <v>184</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4445,12 +4670,12 @@
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4458,7 +4683,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>86</v>
@@ -4470,19 +4695,23 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>256</v>
+        <v>187</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4506,13 +4735,13 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
@@ -4530,10 +4759,10 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>254</v>
+        <v>194</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
@@ -4545,10 +4774,10 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>259</v>
+        <v>184</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4557,12 +4786,12 @@
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>196</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4570,7 +4799,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>86</v>
@@ -4582,33 +4811,35 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>261</v>
+        <v>100</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>77</v>
@@ -4644,7 +4875,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -4662,7 +4893,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>264</v>
+        <v>204</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -4671,12 +4902,12 @@
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4684,10 +4915,10 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>77</v>
@@ -4696,19 +4927,19 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>266</v>
+        <v>165</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4722,7 +4953,7 @@
         <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>77</v>
@@ -4758,13 +4989,13 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>77</v>
@@ -4773,24 +5004,24 @@
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>273</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4810,20 +5041,18 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>275</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -4848,13 +5077,13 @@
         <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
@@ -4872,7 +5101,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>274</v>
+        <v>218</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -4890,21 +5119,21 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>280</v>
+        <v>219</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>282</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>221</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4912,7 +5141,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>86</v>
@@ -4924,19 +5153,19 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>284</v>
+        <v>222</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>285</v>
+        <v>223</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>286</v>
+        <v>224</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4986,7 +5215,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -4995,16 +5224,16 @@
         <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>288</v>
+        <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>289</v>
+        <v>227</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -5013,12 +5242,12 @@
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>290</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5029,7 +5258,7 @@
         <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>77</v>
@@ -5041,17 +5270,15 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>284</v>
+        <v>240</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5100,25 +5327,25 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>288</v>
+        <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5127,12 +5354,12 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5140,7 +5367,7 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>86</v>
@@ -5149,21 +5376,23 @@
         <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>295</v>
+        <v>106</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5188,13 +5417,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5212,10 +5441,10 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>86</v>
@@ -5227,24 +5456,24 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5252,7 +5481,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>86</v>
@@ -5267,13 +5496,13 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>302</v>
+        <v>257</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>303</v>
+        <v>258</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5300,13 +5529,13 @@
         <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>77</v>
@@ -5324,7 +5553,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>301</v>
+        <v>255</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5339,24 +5568,24 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>299</v>
+        <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5379,16 +5608,16 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>261</v>
+        <v>186</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5414,13 +5643,13 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -5438,7 +5667,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -5456,21 +5685,21 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5478,10 +5707,10 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>77</v>
@@ -5490,19 +5719,19 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>315</v>
+        <v>274</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>209</v>
+        <v>275</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5528,13 +5757,13 @@
         <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>77</v>
@@ -5552,13 +5781,13 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>77</v>
@@ -5567,24 +5796,24 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>77</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5592,10 +5821,10 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>77</v>
@@ -5604,19 +5833,19 @@
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>321</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5666,13 +5895,13 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>77</v>
@@ -5681,24 +5910,24 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>323</v>
+        <v>288</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>325</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5709,7 +5938,7 @@
         <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
@@ -5721,16 +5950,16 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>328</v>
+        <v>295</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5780,13 +6009,13 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
@@ -5795,10 +6024,10 @@
         <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>330</v>
+        <v>297</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -5812,7 +6041,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5823,7 +6052,7 @@
         <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>77</v>
@@ -5835,15 +6064,17 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>227</v>
+        <v>299</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -5892,13 +6123,13 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>77</v>
@@ -5910,13 +6141,13 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>335</v>
+        <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -5924,7 +6155,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5935,7 +6166,7 @@
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>77</v>
@@ -5947,13 +6178,13 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>233</v>
+        <v>305</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6004,25 +6235,25 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>236</v>
+        <v>304</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6036,18 +6267,18 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
@@ -6059,17 +6290,15 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>239</v>
+        <v>166</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6118,25 +6347,25 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>237</v>
+        <v>169</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6150,11 +6379,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6167,26 +6396,24 @@
         <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>245</v>
+        <v>172</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N41" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6234,7 +6461,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>246</v>
+        <v>174</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6252,7 +6479,7 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6266,39 +6493,43 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>340</v>
+        <v>131</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6346,25 +6577,25 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>343</v>
+        <v>129</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6378,7 +6609,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6404,15 +6635,15 @@
         <v>186</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6436,13 +6667,13 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6460,7 +6691,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6478,21 +6709,21 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>350</v>
+        <v>77</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6500,10 +6731,10 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>77</v>
@@ -6515,17 +6746,15 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>186</v>
+        <v>325</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>277</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6550,13 +6779,13 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -6574,13 +6803,13 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>77</v>
@@ -6589,16 +6818,16 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6606,7 +6835,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6617,7 +6846,7 @@
         <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
@@ -6629,16 +6858,16 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6688,13 +6917,13 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>77</v>
@@ -6706,13 +6935,13 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -6720,11 +6949,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>366</v>
+        <v>77</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6743,16 +6972,16 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6802,7 +7031,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -6817,24 +7046,24 @@
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>340</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>77</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6845,7 +7074,7 @@
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
@@ -6857,16 +7086,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>373</v>
+        <v>186</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6892,13 +7121,13 @@
         <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>77</v>
+        <v>348</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>77</v>
@@ -6916,13 +7145,13 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
@@ -6934,15 +7163,2059 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AL47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN47" t="s" s="2">
+      <c r="L52" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -259,10 +262,6 @@
   </si>
   <si>
     <t>指定された患者・個人へ薬剤が払い出されたか払い出される予定のものを示す。これには（供給される）提供される製品についての説明や薬剤の服用に関する指示も含まれる。薬剤払い出しは薬剤オーダに対して薬局システムが対応した結果となる。</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}mdd-1:whenHandedOver cannot be before whenPrepared {whenHandedOver.empty() or whenPrepared.empty() or whenHandedOver &gt;= whenPrepared}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1708,55 +1707,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1819,221 +1818,221 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>83</v>
@@ -2042,13 +2041,13 @@
         <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -2057,20 +2056,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>87</v>
@@ -2089,80 +2088,80 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
@@ -2171,20 +2170,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>87</v>
@@ -2201,80 +2200,80 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -2283,17 +2282,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>87</v>
@@ -2315,80 +2314,80 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -2397,23 +2396,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>106</v>
@@ -2429,26 +2428,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>110</v>
@@ -2460,49 +2459,49 @@
         <v>112</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>113</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -2515,19 +2514,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>116</v>
@@ -2543,80 +2542,80 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>121</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -2629,19 +2628,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>124</v>
@@ -2657,80 +2656,80 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -2739,23 +2738,23 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>131</v>
@@ -2769,45 +2768,45 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>134</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>135</v>
@@ -2816,31 +2815,31 @@
         <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -2851,23 +2850,23 @@
         <v>138</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>139</v>
@@ -2881,59 +2880,59 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>142</v>
@@ -2942,19 +2941,19 @@
         <v>137</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -2967,19 +2966,19 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>87</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>131</v>
@@ -2997,80 +2996,80 @@
         <v>148</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>149</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -3079,23 +3078,23 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
         <v>86</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>151</v>
@@ -3111,45 +3110,45 @@
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>155</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>135</v>
@@ -3158,13 +3157,13 @@
         <v>150</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>98</v>
@@ -3182,7 +3181,7 @@
         <v>159</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
@@ -3193,7 +3192,7 @@
         <v>160</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3203,13 +3202,13 @@
         <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>151</v>
@@ -3225,62 +3224,62 @@
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>150</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>98</v>
@@ -3298,7 +3297,7 @@
         <v>159</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -3307,23 +3306,23 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>165</v>
@@ -3337,80 +3336,80 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>168</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -3423,19 +3422,19 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>131</v>
@@ -3451,38 +3450,38 @@
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>134</v>
@@ -3491,7 +3490,7 @@
         <v>173</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>135</v>
@@ -3500,31 +3499,31 @@
         <v>174</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
@@ -3533,17 +3532,17 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>87</v>
@@ -3567,26 +3566,26 @@
         <v>179</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
         <v>180</v>
@@ -3598,46 +3597,46 @@
         <v>182</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>183</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>184</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>129</v>
@@ -3649,20 +3648,20 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>87</v>
@@ -3683,26 +3682,26 @@
         <v>190</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
         <v>191</v>
@@ -3714,46 +3713,46 @@
         <v>193</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>194</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>184</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>195</v>
@@ -3765,7 +3764,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3775,10 +3774,10 @@
         <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>87</v>
@@ -3799,77 +3798,77 @@
         <v>200</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
         <v>201</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>202</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>203</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>204</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>205</v>
@@ -3881,7 +3880,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3891,10 +3890,10 @@
         <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>87</v>
@@ -3913,77 +3912,77 @@
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>210</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>211</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>213</v>
@@ -3995,20 +3994,20 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>87</v>
@@ -4025,77 +4024,77 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>218</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>219</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>220</v>
@@ -4107,20 +4106,20 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>87</v>
@@ -4139,77 +4138,77 @@
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>226</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>227</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>228</v>
@@ -4223,23 +4222,23 @@
         <v>229</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>151</v>
@@ -4255,62 +4254,62 @@
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>150</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>98</v>
@@ -4328,7 +4327,7 @@
         <v>159</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
@@ -4337,23 +4336,23 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>165</v>
@@ -4367,80 +4366,80 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>168</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
@@ -4453,19 +4452,19 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>131</v>
@@ -4481,38 +4480,38 @@
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>134</v>
@@ -4521,7 +4520,7 @@
         <v>173</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>135</v>
@@ -4530,31 +4529,31 @@
         <v>174</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
@@ -4563,17 +4562,17 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>87</v>
@@ -4597,26 +4596,26 @@
         <v>179</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
         <v>180</v>
@@ -4628,46 +4627,46 @@
         <v>182</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>183</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>184</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>129</v>
@@ -4679,20 +4678,20 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>87</v>
@@ -4713,26 +4712,26 @@
         <v>190</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
         <v>191</v>
@@ -4744,46 +4743,46 @@
         <v>193</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>194</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>184</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>195</v>
@@ -4795,7 +4794,7 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4805,10 +4804,10 @@
         <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>87</v>
@@ -4829,77 +4828,77 @@
         <v>200</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
         <v>235</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>202</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>203</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>204</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>205</v>
@@ -4911,7 +4910,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4921,10 +4920,10 @@
         <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>87</v>
@@ -4943,77 +4942,77 @@
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>210</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>212</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>213</v>
@@ -5025,20 +5024,20 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>87</v>
@@ -5055,77 +5054,77 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>218</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>219</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>220</v>
@@ -5137,20 +5136,20 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>87</v>
@@ -5169,77 +5168,77 @@
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>226</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>227</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>228</v>
@@ -5251,23 +5250,23 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>240</v>
@@ -5281,62 +5280,62 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>239</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>98</v>
@@ -5348,13 +5347,13 @@
         <v>244</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32">
@@ -5363,7 +5362,7 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5373,7 +5372,7 @@
         <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>87</v>
@@ -5395,26 +5394,26 @@
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
         <v>180</v>
@@ -5426,19 +5425,19 @@
         <v>250</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>245</v>
@@ -5450,7 +5449,7 @@
         <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>98</v>
@@ -5468,7 +5467,7 @@
         <v>254</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
@@ -5477,23 +5476,23 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>256</v>
@@ -5507,26 +5506,26 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
         <v>259</v>
@@ -5538,31 +5537,31 @@
         <v>261</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>255</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>98</v>
@@ -5574,13 +5573,13 @@
         <v>263</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34">
@@ -5589,23 +5588,23 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>186</v>
@@ -5621,26 +5620,26 @@
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
         <v>110</v>
@@ -5652,49 +5651,49 @@
         <v>269</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>264</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>270</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35">
@@ -5703,7 +5702,7 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5713,10 +5712,10 @@
         <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>87</v>
@@ -5735,26 +5734,26 @@
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W35" t="s" s="2">
         <v>259</v>
@@ -5766,19 +5765,19 @@
         <v>277</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>271</v>
@@ -5790,7 +5789,7 @@
         <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>98</v>
@@ -5817,7 +5816,7 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5827,10 +5826,10 @@
         <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>87</v>
@@ -5849,62 +5848,62 @@
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>283</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>98</v>
@@ -5919,7 +5918,7 @@
         <v>290</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>291</v>
@@ -5931,23 +5930,23 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>293</v>
@@ -5963,62 +5962,62 @@
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>292</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>98</v>
@@ -6030,13 +6029,13 @@
         <v>297</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38">
@@ -6045,23 +6044,23 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>299</v>
@@ -6077,68 +6076,68 @@
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>298</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>302</v>
@@ -6147,10 +6146,10 @@
         <v>303</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39">
@@ -6159,23 +6158,23 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>305</v>
@@ -6189,62 +6188,62 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>304</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>98</v>
@@ -6256,13 +6255,13 @@
         <v>309</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40">
@@ -6271,23 +6270,23 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>165</v>
@@ -6301,80 +6300,80 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
         <v>168</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
@@ -6387,19 +6386,19 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>131</v>
@@ -6415,80 +6414,80 @@
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>174</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42">
@@ -6501,13 +6500,13 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>87</v>
@@ -6531,80 +6530,80 @@
         <v>148</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>316</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
@@ -6613,23 +6612,23 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>186</v>
@@ -6645,26 +6644,26 @@
         <v>320</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W43" t="s" s="2">
         <v>259</v>
@@ -6676,49 +6675,49 @@
         <v>322</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>317</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>323</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
@@ -6727,7 +6726,7 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6737,13 +6736,13 @@
         <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
         <v>325</v>
@@ -6757,50 +6756,50 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>324</v>
@@ -6812,7 +6811,7 @@
         <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>98</v>
@@ -6824,13 +6823,13 @@
         <v>329</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45">
@@ -6839,23 +6838,23 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>331</v>
@@ -6871,80 +6870,80 @@
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>330</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>334</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46">
@@ -6953,23 +6952,23 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
         <v>336</v>
@@ -6985,62 +6984,62 @@
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
         <v>335</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>98</v>
@@ -7052,7 +7051,7 @@
         <v>341</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>342</v>
@@ -7067,23 +7066,23 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>186</v>
@@ -7099,26 +7098,26 @@
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W47" t="s" s="2">
         <v>259</v>
@@ -7130,43 +7129,43 @@
         <v>349</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>344</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>350</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>351</v>
@@ -7181,7 +7180,7 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7191,13 +7190,13 @@
         <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>354</v>
@@ -7213,56 +7212,56 @@
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>353</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>86</v>
@@ -7274,16 +7273,16 @@
         <v>358</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>359</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>360</v>
@@ -7295,23 +7294,23 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>354</v>
@@ -7327,56 +7326,56 @@
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>361</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>86</v>
@@ -7388,16 +7387,16 @@
         <v>358</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>359</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>360</v>
@@ -7409,20 +7408,20 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>87</v>
@@ -7439,74 +7438,74 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
         <v>364</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>368</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>369</v>
@@ -7521,7 +7520,7 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7531,13 +7530,13 @@
         <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>365</v>
@@ -7551,62 +7550,62 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>371</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>98</v>
@@ -7618,7 +7617,7 @@
         <v>375</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>369</v>
@@ -7633,23 +7632,23 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>331</v>
@@ -7665,74 +7664,74 @@
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
         <v>376</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>379</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>380</v>
@@ -7747,23 +7746,23 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>383</v>
@@ -7779,80 +7778,80 @@
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>382</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>386</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>387</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54">
@@ -7861,23 +7860,23 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>389</v>
@@ -7893,62 +7892,62 @@
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>388</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>98</v>
@@ -7960,10 +7959,10 @@
         <v>394</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>395</v>
@@ -7975,23 +7974,23 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>397</v>
@@ -8007,80 +8006,80 @@
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
         <v>396</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>400</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56">
@@ -8089,23 +8088,23 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>305</v>
@@ -8119,80 +8118,80 @@
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>401</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>404</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>405</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57">
@@ -8201,23 +8200,23 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>165</v>
@@ -8231,80 +8230,80 @@
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
         <v>168</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58">
@@ -8317,19 +8316,19 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>131</v>
@@ -8345,80 +8344,80 @@
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
         <v>174</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>169</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59">
@@ -8431,13 +8430,13 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>87</v>
@@ -8461,80 +8460,80 @@
         <v>148</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
         <v>316</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60">
@@ -8543,7 +8542,7 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8553,13 +8552,13 @@
         <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>410</v>
@@ -8573,50 +8572,50 @@
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>409</v>
@@ -8628,25 +8627,25 @@
         <v>86</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>413</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61">
@@ -8655,23 +8654,23 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
         <v>186</v>
@@ -8687,26 +8686,26 @@
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W61" t="s" s="2">
         <v>259</v>
@@ -8718,43 +8717,43 @@
         <v>419</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
         <v>414</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>350</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>420</v>
@@ -8769,23 +8768,23 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>186</v>
@@ -8801,26 +8800,26 @@
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W62" t="s" s="2">
         <v>259</v>
@@ -8832,49 +8831,49 @@
         <v>426</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
         <v>422</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>427</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>428</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63">
@@ -8883,23 +8882,23 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>430</v>
@@ -8915,80 +8914,80 @@
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
         <v>429</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>433</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>434</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64">
@@ -9001,19 +9000,19 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>437</v>
@@ -9029,80 +9028,80 @@
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
         <v>435</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>441</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65">
@@ -9111,23 +9110,23 @@
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>443</v>
@@ -9143,80 +9142,80 @@
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
         <v>442</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>447</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispensebase.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medicationdispensebase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
